--- a/NISTIR 8374-Ransomware.xlsx
+++ b/NISTIR 8374-Ransomware.xlsx
@@ -6434,6 +6434,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -6516,9 +6519,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -9819,7 +9819,7 @@
   <dimension ref="C4:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -10000,7 +10000,7 @@
       </c>
     </row>
     <row r="2" spans="3:5" ht="112.8" customHeight="1">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -10011,7 +10011,7 @@
       </c>
     </row>
     <row r="3" spans="3:5" ht="91.2" customHeight="1">
-      <c r="C3" s="85"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
@@ -10020,7 +10020,7 @@
       </c>
     </row>
     <row r="4" spans="3:5" ht="66" customHeight="1">
-      <c r="C4" s="85"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
@@ -10029,7 +10029,7 @@
       </c>
     </row>
     <row r="5" spans="3:5" ht="114.6" customHeight="1">
-      <c r="C5" s="85"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
@@ -10038,7 +10038,7 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="109.8" customHeight="1">
-      <c r="C6" s="85"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
@@ -10047,7 +10047,7 @@
       </c>
     </row>
     <row r="7" spans="3:5" ht="93" customHeight="1">
-      <c r="C7" s="85"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
@@ -10056,7 +10056,7 @@
       </c>
     </row>
     <row r="8" spans="3:5" ht="104.4" customHeight="1">
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -10067,7 +10067,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" ht="88.8" customHeight="1">
-      <c r="C9" s="87"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
@@ -10076,7 +10076,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" ht="137.4" customHeight="1">
-      <c r="C10" s="88"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
@@ -10085,7 +10085,7 @@
       </c>
     </row>
     <row r="11" spans="3:5" ht="123" customHeight="1">
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="90" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -10096,7 +10096,7 @@
       </c>
     </row>
     <row r="12" spans="3:5" ht="106.2" customHeight="1">
-      <c r="C12" s="90"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
@@ -10105,7 +10105,7 @@
       </c>
     </row>
     <row r="13" spans="3:5" ht="99" customHeight="1">
-      <c r="C13" s="91"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
@@ -10114,7 +10114,7 @@
       </c>
     </row>
     <row r="14" spans="3:5" ht="124.8" customHeight="1">
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="87" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -10125,7 +10125,7 @@
       </c>
     </row>
     <row r="15" spans="3:5" ht="84.6" customHeight="1">
-      <c r="C15" s="87"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="11" t="s">
         <v>35</v>
       </c>
@@ -10134,7 +10134,7 @@
       </c>
     </row>
     <row r="16" spans="3:5" ht="120.6" customHeight="1">
-      <c r="C16" s="87"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
@@ -10143,7 +10143,7 @@
       </c>
     </row>
     <row r="17" spans="3:5" ht="79.2" customHeight="1">
-      <c r="C17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
@@ -10221,12 +10221,12 @@
       <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="85" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="3:6" ht="112.8" customHeight="1">
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -10240,7 +10240,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" ht="91.2" customHeight="1">
-      <c r="C3" s="93"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="23" t="s">
         <v>74</v>
       </c>
@@ -10252,7 +10252,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="105.6" customHeight="1">
-      <c r="C4" s="93"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="22" t="s">
         <v>75</v>
       </c>
@@ -10264,7 +10264,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="134.4" customHeight="1">
-      <c r="C5" s="93"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="19" t="s">
         <v>78</v>
       </c>
@@ -10276,7 +10276,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="109.8" customHeight="1">
-      <c r="C6" s="94"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="20" t="s">
         <v>77</v>
       </c>
@@ -10302,7 +10302,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="104.4" customHeight="1">
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="93" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -10316,7 +10316,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" ht="88.8" customHeight="1">
-      <c r="C9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="25" t="s">
         <v>80</v>
       </c>
@@ -10328,7 +10328,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" ht="137.4" customHeight="1">
-      <c r="C10" s="93"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="22" t="s">
         <v>81</v>
       </c>
@@ -10340,7 +10340,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" ht="123" customHeight="1">
-      <c r="C11" s="94"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="23" t="s">
         <v>82</v>
       </c>
@@ -10352,7 +10352,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" ht="106.2" customHeight="1">
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="96" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -10366,7 +10366,7 @@
       </c>
     </row>
     <row r="13" spans="3:6" ht="99" customHeight="1">
-      <c r="C13" s="96"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="23" t="s">
         <v>84</v>
       </c>
@@ -10378,7 +10378,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" ht="124.8" customHeight="1">
-      <c r="C14" s="96"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="22" t="s">
         <v>85</v>
       </c>
@@ -10390,7 +10390,7 @@
       </c>
     </row>
     <row r="15" spans="3:6" ht="84.6" customHeight="1">
-      <c r="C15" s="96"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="23" t="s">
         <v>86</v>
       </c>
@@ -10402,7 +10402,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" ht="120.6" customHeight="1">
-      <c r="C16" s="97"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="22" t="s">
         <v>73</v>
       </c>
@@ -10428,7 +10428,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" ht="111" customHeight="1">
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -10442,7 +10442,7 @@
       </c>
     </row>
     <row r="19" spans="3:6" ht="198.6" customHeight="1">
-      <c r="C19" s="97"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="26" t="s">
         <v>70</v>
       </c>
@@ -10508,7 +10508,7 @@
       </c>
     </row>
     <row r="2" spans="3:6" ht="112.8" customHeight="1">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="102" t="s">
         <v>132</v>
       </c>
       <c r="D2" s="39" t="s">
@@ -10522,7 +10522,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" ht="91.2" customHeight="1">
-      <c r="C3" s="101"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="41" t="s">
         <v>122</v>
       </c>
@@ -10532,7 +10532,7 @@
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="3:6" ht="105.6" customHeight="1">
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="103" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="40" t="s">
@@ -10544,7 +10544,7 @@
       <c r="F4" s="39"/>
     </row>
     <row r="5" spans="3:6" ht="114.6" customHeight="1">
-      <c r="C5" s="102"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="41" t="s">
         <v>124</v>
       </c>
@@ -10554,7 +10554,7 @@
       <c r="F5" s="42"/>
     </row>
     <row r="6" spans="3:6" ht="109.8" customHeight="1">
-      <c r="C6" s="102"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="40" t="s">
         <v>125</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="F6" s="39"/>
     </row>
     <row r="7" spans="3:6" ht="121.8" customHeight="1">
-      <c r="C7" s="102"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="41" t="s">
         <v>126</v>
       </c>
@@ -10574,7 +10574,7 @@
       <c r="F7" s="42"/>
     </row>
     <row r="8" spans="3:6" ht="104.4" customHeight="1">
-      <c r="C8" s="102"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="37" t="s">
         <v>127</v>
       </c>
@@ -10584,7 +10584,7 @@
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="3:6" ht="88.8" customHeight="1">
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="99" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="41" t="s">
@@ -10596,7 +10596,7 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="3:6" ht="137.4" customHeight="1">
-      <c r="C10" s="99"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="40" t="s">
         <v>128</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="F10" s="39"/>
     </row>
     <row r="11" spans="3:6" ht="123" customHeight="1">
-      <c r="C11" s="99"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="43" t="s">
         <v>129</v>
       </c>
@@ -10616,7 +10616,7 @@
       <c r="F11" s="43"/>
     </row>
     <row r="12" spans="3:6" ht="106.2" customHeight="1">
-      <c r="C12" s="99"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="40" t="s">
         <v>130</v>
       </c>
@@ -10626,7 +10626,7 @@
       <c r="F12" s="39"/>
     </row>
     <row r="13" spans="3:6" ht="99" customHeight="1">
-      <c r="C13" s="100"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="41" t="s">
         <v>131</v>
       </c>
@@ -10705,7 +10705,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" ht="91.2" customHeight="1">
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="111" t="s">
         <v>102</v>
       </c>
       <c r="D3" s="48" t="s">
@@ -10717,7 +10717,7 @@
       <c r="F3" s="54"/>
     </row>
     <row r="4" spans="3:6" ht="105.6" customHeight="1">
-      <c r="C4" s="110"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="47" t="s">
         <v>138</v>
       </c>
@@ -10727,7 +10727,7 @@
       <c r="F4" s="53"/>
     </row>
     <row r="5" spans="3:6" ht="114.6" customHeight="1">
-      <c r="C5" s="110"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="48" t="s">
         <v>139</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="F5" s="54"/>
     </row>
     <row r="6" spans="3:6" ht="109.8" customHeight="1">
-      <c r="C6" s="110"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="47" t="s">
         <v>140</v>
       </c>
@@ -10747,7 +10747,7 @@
       <c r="F6" s="53"/>
     </row>
     <row r="7" spans="3:6" ht="121.8" customHeight="1">
-      <c r="C7" s="110"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="48" t="s">
         <v>141</v>
       </c>
@@ -10757,7 +10757,7 @@
       <c r="F7" s="54"/>
     </row>
     <row r="8" spans="3:6" ht="104.4" customHeight="1">
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="105" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="47" t="s">
@@ -10769,7 +10769,7 @@
       <c r="F8" s="53"/>
     </row>
     <row r="9" spans="3:6" ht="88.8" customHeight="1">
-      <c r="C9" s="105"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="48" t="s">
         <v>143</v>
       </c>
@@ -10779,7 +10779,7 @@
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="3:6" ht="137.4" customHeight="1">
-      <c r="C10" s="105"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="47" t="s">
         <v>144</v>
       </c>
@@ -10789,7 +10789,7 @@
       <c r="F10" s="55"/>
     </row>
     <row r="11" spans="3:6" ht="123" customHeight="1">
-      <c r="C11" s="106"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="48" t="s">
         <v>145</v>
       </c>
@@ -10799,7 +10799,7 @@
       <c r="F11" s="54"/>
     </row>
     <row r="12" spans="3:6" ht="106.2" customHeight="1">
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="108" t="s">
         <v>105</v>
       </c>
       <c r="D12" s="47" t="s">
@@ -10811,7 +10811,7 @@
       <c r="F12" s="53"/>
     </row>
     <row r="13" spans="3:6" ht="99" customHeight="1">
-      <c r="C13" s="108"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="48" t="s">
         <v>135</v>
       </c>
@@ -10821,7 +10821,7 @@
       <c r="F13" s="54"/>
     </row>
     <row r="14" spans="3:6" ht="83.4" customHeight="1">
-      <c r="C14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="47" t="s">
         <v>147</v>
       </c>
@@ -10831,7 +10831,7 @@
       <c r="F14" s="53"/>
     </row>
     <row r="15" spans="3:6" ht="88.8" customHeight="1">
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="104" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -10843,7 +10843,7 @@
       <c r="F15" s="54"/>
     </row>
     <row r="16" spans="3:6" ht="100.2" customHeight="1">
-      <c r="C16" s="103"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="47" t="s">
         <v>149</v>
       </c>
@@ -10921,7 +10921,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" ht="91.2" customHeight="1">
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="112" t="s">
         <v>157</v>
       </c>
       <c r="D3" s="63" t="s">
@@ -10933,7 +10933,7 @@
       <c r="F3" s="64"/>
     </row>
     <row r="4" spans="3:6" ht="105.6" customHeight="1">
-      <c r="C4" s="111"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="61" t="s">
         <v>159</v>
       </c>
@@ -10943,7 +10943,7 @@
       <c r="F4" s="62"/>
     </row>
     <row r="5" spans="3:6" ht="114.6" customHeight="1">
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="113" t="s">
         <v>160</v>
       </c>
       <c r="D5" s="63" t="s">
@@ -10955,7 +10955,7 @@
       <c r="F5" s="64"/>
     </row>
     <row r="6" spans="3:6" ht="109.8" customHeight="1">
-      <c r="C6" s="112"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="61" t="s">
         <v>162</v>
       </c>
@@ -10965,7 +10965,7 @@
       <c r="F6" s="62"/>
     </row>
     <row r="7" spans="3:6" ht="121.8" customHeight="1">
-      <c r="C7" s="112"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="63" t="s">
         <v>163</v>
       </c>

--- a/NISTIR 8374-Ransomware.xlsx
+++ b/NISTIR 8374-Ransomware.xlsx
@@ -9819,7 +9819,7 @@
   <dimension ref="C4:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -9976,7 +9976,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -10196,9 +10196,9 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -10481,7 +10481,9 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -10663,7 +10665,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -10768,7 +10770,7 @@
       </c>
       <c r="F8" s="53"/>
     </row>
-    <row r="9" spans="3:6" ht="88.8" customHeight="1">
+    <row r="9" spans="3:6" ht="113.4" customHeight="1">
       <c r="C9" s="106"/>
       <c r="D9" s="48" t="s">
         <v>143</v>
@@ -10879,7 +10881,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
